--- a/Dev/Files/Marketing/OasisRunManager.xlsx
+++ b/Dev/Files/Marketing/OasisRunManager.xlsx
@@ -897,7 +897,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -981,7 +981,7 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
